--- a/Sber/Shedule/таблица занятий с несколькими учителями.xlsx
+++ b/Sber/Shedule/таблица занятий с несколькими учителями.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergPC\PycharmProjects\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIVANCO\PycharmProjects\schedule_master\Sber\Shedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390AABB5-117A-458D-88DE-C1D615D72EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ECB8ED-EAFB-4B2A-A535-6AC3D94CBA87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="45">
   <si>
     <t>lesson_specialization</t>
   </si>
@@ -45,17 +45,136 @@
   <si>
     <t>number_of_trainers</t>
   </si>
+  <si>
+    <t>lesson_title</t>
+  </si>
+  <si>
+    <t>Раскидки на оверпасе</t>
+  </si>
+  <si>
+    <t>Сборка дазла в керри</t>
+  </si>
+  <si>
+    <t>Как победить с мозамбиком</t>
+  </si>
+  <si>
+    <t>Длинные нарды: правила и стратегии</t>
+  </si>
+  <si>
+    <t>Почему в Саранске пахнет дерьмом?</t>
+  </si>
+  <si>
+    <t>Дев'ять чи десять</t>
+  </si>
+  <si>
+    <t>В черной мезе произошел хлопок</t>
+  </si>
+  <si>
+    <t>Степ или Крокант?</t>
+  </si>
+  <si>
+    <t>Animal Crossing Советы для новичков</t>
+  </si>
+  <si>
+    <t>Как нас обманывают тележки в Ашане?</t>
+  </si>
+  <si>
+    <t>Почему Стэтхэм запрещает срать?</t>
+  </si>
+  <si>
+    <t>Как правильно встряхивать градусник</t>
+  </si>
+  <si>
+    <t>Польза соевых напитков</t>
+  </si>
+  <si>
+    <t>Как стать невидимым?</t>
+  </si>
+  <si>
+    <t>Шариат и Шаринган. В чем отличие?</t>
+  </si>
+  <si>
+    <t>Ответы на воровские загадки</t>
+  </si>
+  <si>
+    <t>Ищем нагретые сиденья в троллейбусе</t>
+  </si>
+  <si>
+    <t>Успешные кейсы уклонения от алиментов</t>
+  </si>
+  <si>
+    <t>Как повысить уровень допуска?</t>
+  </si>
+  <si>
+    <t>Коротко о курсе бонусов Магнита</t>
+  </si>
+  <si>
+    <t>Пишем биты в FL Studio</t>
+  </si>
+  <si>
+    <t>Как правильно мыть кота?</t>
+  </si>
+  <si>
+    <t>Случай в казино. Кто прав, а кто дефичент?</t>
+  </si>
+  <si>
+    <t>Как оливки зменили мир?</t>
+  </si>
+  <si>
+    <t>Как парить в школе чтобы не спалится?</t>
+  </si>
+  <si>
+    <t>Как устроиться водителем в магнит?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уязвимости, распрыжки и прочие хитрости </t>
+  </si>
+  <si>
+    <t>Световые гранаты: хорошо или плохо?</t>
+  </si>
+  <si>
+    <t>Секреты фокуса с наперсткми</t>
+  </si>
+  <si>
+    <t>Выбираем КАЧЕСТВЕННЫЕ бананы!</t>
+  </si>
+  <si>
+    <t>Самые выгодные дропы</t>
+  </si>
+  <si>
+    <t>Трамвай. Как ездить нахаляву</t>
+  </si>
+  <si>
+    <t>На ком тащить в новом патче 7.26b?</t>
+  </si>
+  <si>
+    <t>Выжимаем сметану до конца</t>
+  </si>
+  <si>
+    <t>Кто украл пять бутылок водки?</t>
+  </si>
+  <si>
+    <t>Танковые стриммеры</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,14 +227,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -418,21 +538,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E341"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +566,11 @@
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,8 +586,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -479,8 +606,11 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -496,8 +626,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -513,8 +646,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -530,8 +666,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -547,8 +686,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -564,8 +706,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -581,8 +726,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -598,8 +746,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -615,8 +766,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -632,8 +786,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -649,8 +806,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -666,8 +826,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -683,8 +846,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -700,8 +866,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -717,8 +886,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -734,8 +906,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -751,8 +926,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -768,8 +946,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -785,8 +966,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -802,8 +986,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -819,8 +1006,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -836,8 +1026,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -853,8 +1046,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -870,8 +1066,11 @@
       <c r="E26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -887,8 +1086,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -904,8 +1106,11 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -921,8 +1126,11 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -938,8 +1146,11 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -955,8 +1166,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -972,8 +1186,11 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -989,8 +1206,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1006,8 +1226,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1023,8 +1246,11 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1040,8 +1266,11 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1057,8 +1286,11 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1074,8 +1306,11 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1091,8 +1326,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1108,8 +1346,11 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1125,8 +1366,11 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1142,8 +1386,11 @@
       <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1159,8 +1406,11 @@
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1176,8 +1426,11 @@
       <c r="E44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1193,8 +1446,11 @@
       <c r="E45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1210,8 +1466,11 @@
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1227,8 +1486,11 @@
       <c r="E47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1244,8 +1506,11 @@
       <c r="E48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1261,8 +1526,11 @@
       <c r="E49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1278,8 +1546,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1295,8 +1566,11 @@
       <c r="E51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1312,8 +1586,11 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1329,8 +1606,11 @@
       <c r="E53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1346,8 +1626,11 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1363,8 +1646,11 @@
       <c r="E55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1380,8 +1666,11 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1397,8 +1686,11 @@
       <c r="E57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1414,8 +1706,11 @@
       <c r="E58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1431,8 +1726,11 @@
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1448,8 +1746,11 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1465,8 +1766,11 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1482,8 +1786,11 @@
       <c r="E62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1499,8 +1806,11 @@
       <c r="E63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1516,8 +1826,11 @@
       <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1533,8 +1846,11 @@
       <c r="E65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1550,8 +1866,11 @@
       <c r="E66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1567,8 +1886,11 @@
       <c r="E67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1584,8 +1906,11 @@
       <c r="E68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1601,8 +1926,11 @@
       <c r="E69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1618,8 +1946,11 @@
       <c r="E70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1635,8 +1966,11 @@
       <c r="E71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1652,8 +1986,11 @@
       <c r="E72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1669,8 +2006,11 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1686,8 +2026,11 @@
       <c r="E74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1703,8 +2046,11 @@
       <c r="E75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1720,8 +2066,11 @@
       <c r="E76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1737,8 +2086,11 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1754,8 +2106,11 @@
       <c r="E78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1771,8 +2126,11 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1788,8 +2146,11 @@
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1805,8 +2166,11 @@
       <c r="E81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1822,8 +2186,11 @@
       <c r="E82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1839,8 +2206,11 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1856,8 +2226,11 @@
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1873,8 +2246,11 @@
       <c r="E85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1890,8 +2266,11 @@
       <c r="E86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1907,8 +2286,11 @@
       <c r="E87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1924,8 +2306,11 @@
       <c r="E88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1941,8 +2326,11 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1958,8 +2346,11 @@
       <c r="E90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1975,8 +2366,11 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1992,8 +2386,11 @@
       <c r="E92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2009,8 +2406,11 @@
       <c r="E93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2026,8 +2426,11 @@
       <c r="E94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2043,8 +2446,11 @@
       <c r="E95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2060,8 +2466,11 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F96" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2077,8 +2486,11 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2094,8 +2506,11 @@
       <c r="E98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2111,8 +2526,11 @@
       <c r="E99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2128,8 +2546,11 @@
       <c r="E100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2145,8 +2566,11 @@
       <c r="E101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2162,8 +2586,11 @@
       <c r="E102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2179,8 +2606,11 @@
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F103" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2196,8 +2626,11 @@
       <c r="E104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2213,8 +2646,11 @@
       <c r="E105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2230,8 +2666,11 @@
       <c r="E106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2247,8 +2686,11 @@
       <c r="E107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F107" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2264,8 +2706,11 @@
       <c r="E108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2281,8 +2726,11 @@
       <c r="E109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F109" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2298,8 +2746,11 @@
       <c r="E110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2315,8 +2766,11 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2332,8 +2786,11 @@
       <c r="E112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2349,8 +2806,11 @@
       <c r="E113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2366,8 +2826,11 @@
       <c r="E114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2383,8 +2846,11 @@
       <c r="E115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2400,8 +2866,11 @@
       <c r="E116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2417,8 +2886,11 @@
       <c r="E117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2434,8 +2906,11 @@
       <c r="E118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2451,8 +2926,11 @@
       <c r="E119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2468,8 +2946,11 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2485,8 +2966,11 @@
       <c r="E121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2502,8 +2986,11 @@
       <c r="E122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2519,8 +3006,11 @@
       <c r="E123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2536,8 +3026,11 @@
       <c r="E124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2553,8 +3046,11 @@
       <c r="E125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F125" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2570,8 +3066,11 @@
       <c r="E126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2587,8 +3086,11 @@
       <c r="E127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2604,8 +3106,11 @@
       <c r="E128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F128" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2621,8 +3126,11 @@
       <c r="E129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2638,8 +3146,11 @@
       <c r="E130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2655,8 +3166,11 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2672,8 +3186,11 @@
       <c r="E132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F132" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2689,8 +3206,11 @@
       <c r="E133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2706,8 +3226,11 @@
       <c r="E134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F134" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2723,8 +3246,11 @@
       <c r="E135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2740,8 +3266,11 @@
       <c r="E136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F136" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2757,8 +3286,11 @@
       <c r="E137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F137" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2774,8 +3306,11 @@
       <c r="E138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F138" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2791,8 +3326,11 @@
       <c r="E139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F139" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2808,8 +3346,11 @@
       <c r="E140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F140" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2825,8 +3366,11 @@
       <c r="E141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F141" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2842,8 +3386,11 @@
       <c r="E142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F142" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2859,8 +3406,11 @@
       <c r="E143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F143" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2876,8 +3426,11 @@
       <c r="E144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F144" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2893,8 +3446,11 @@
       <c r="E145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F145" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2910,8 +3466,11 @@
       <c r="E146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F146" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2927,8 +3486,11 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2944,8 +3506,11 @@
       <c r="E148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2961,8 +3526,11 @@
       <c r="E149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2978,8 +3546,11 @@
       <c r="E150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2995,8 +3566,11 @@
       <c r="E151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3012,8 +3586,11 @@
       <c r="E152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3029,8 +3606,11 @@
       <c r="E153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3046,8 +3626,11 @@
       <c r="E154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3063,8 +3646,11 @@
       <c r="E155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3080,8 +3666,11 @@
       <c r="E156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3097,8 +3686,11 @@
       <c r="E157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3114,8 +3706,11 @@
       <c r="E158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3131,8 +3726,11 @@
       <c r="E159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F159" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3148,8 +3746,11 @@
       <c r="E160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3165,8 +3766,11 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3182,8 +3786,11 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3199,8 +3806,11 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3216,8 +3826,11 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3233,8 +3846,11 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F165" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3250,8 +3866,11 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F166" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3267,8 +3886,11 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F167" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3284,8 +3906,11 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3301,8 +3926,11 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F169" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3318,8 +3946,11 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F170" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3335,8 +3966,11 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F171" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3352,8 +3986,11 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F172" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3369,8 +4006,11 @@
       <c r="E173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F173" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3386,8 +4026,11 @@
       <c r="E174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F174" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3403,8 +4046,11 @@
       <c r="E175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F175" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3420,8 +4066,11 @@
       <c r="E176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F176" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3437,8 +4086,11 @@
       <c r="E177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F177" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3454,8 +4106,11 @@
       <c r="E178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F178" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3471,8 +4126,11 @@
       <c r="E179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F179" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3488,8 +4146,11 @@
       <c r="E180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F180" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3505,8 +4166,11 @@
       <c r="E181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F181" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3522,8 +4186,11 @@
       <c r="E182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F182" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3539,8 +4206,11 @@
       <c r="E183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3556,8 +4226,11 @@
       <c r="E184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3573,8 +4246,11 @@
       <c r="E185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3590,8 +4266,11 @@
       <c r="E186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3607,8 +4286,11 @@
       <c r="E187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3624,8 +4306,11 @@
       <c r="E188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3641,8 +4326,11 @@
       <c r="E189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3658,8 +4346,11 @@
       <c r="E190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3675,8 +4366,11 @@
       <c r="E191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3692,8 +4386,11 @@
       <c r="E192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F192" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3709,8 +4406,11 @@
       <c r="E193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F193" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3726,8 +4426,11 @@
       <c r="E194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3743,8 +4446,11 @@
       <c r="E195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F195" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3760,8 +4466,11 @@
       <c r="E196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F196" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3777,8 +4486,11 @@
       <c r="E197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3794,8 +4506,11 @@
       <c r="E198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3811,8 +4526,11 @@
       <c r="E199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F199" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3828,8 +4546,11 @@
       <c r="E200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F200" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3845,8 +4566,11 @@
       <c r="E201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F201" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3862,8 +4586,11 @@
       <c r="E202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F202" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3879,8 +4606,11 @@
       <c r="E203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F203" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3896,8 +4626,11 @@
       <c r="E204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F204" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3913,8 +4646,11 @@
       <c r="E205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F205" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3930,8 +4666,11 @@
       <c r="E206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F206" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3947,8 +4686,11 @@
       <c r="E207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3964,8 +4706,11 @@
       <c r="E208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3981,8 +4726,11 @@
       <c r="E209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F209" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3998,8 +4746,11 @@
       <c r="E210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F210" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4015,8 +4766,11 @@
       <c r="E211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F211" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4032,8 +4786,11 @@
       <c r="E212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F212" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4049,8 +4806,11 @@
       <c r="E213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F213" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4066,8 +4826,11 @@
       <c r="E214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F214" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4083,8 +4846,11 @@
       <c r="E215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F215" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4100,8 +4866,11 @@
       <c r="E216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F216" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4117,8 +4886,11 @@
       <c r="E217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F217" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4134,8 +4906,11 @@
       <c r="E218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F218" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4151,8 +4926,11 @@
       <c r="E219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4168,8 +4946,11 @@
       <c r="E220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F220" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4185,8 +4966,11 @@
       <c r="E221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4202,8 +4986,11 @@
       <c r="E222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4219,8 +5006,11 @@
       <c r="E223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4236,8 +5026,11 @@
       <c r="E224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4253,8 +5046,11 @@
       <c r="E225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F225" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4270,8 +5066,11 @@
       <c r="E226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4287,8 +5086,11 @@
       <c r="E227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F227" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4304,8 +5106,11 @@
       <c r="E228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F228" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4321,8 +5126,11 @@
       <c r="E229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F229" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4338,8 +5146,11 @@
       <c r="E230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F230" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4355,8 +5166,11 @@
       <c r="E231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F231" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4372,8 +5186,11 @@
       <c r="E232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F232" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4389,8 +5206,11 @@
       <c r="E233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F233" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4406,8 +5226,11 @@
       <c r="E234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F234" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4423,8 +5246,11 @@
       <c r="E235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F235" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -4440,8 +5266,11 @@
       <c r="E236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F236" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4457,8 +5286,11 @@
       <c r="E237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F237" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4474,8 +5306,11 @@
       <c r="E238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F238" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4491,8 +5326,11 @@
       <c r="E239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F239" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4508,8 +5346,11 @@
       <c r="E240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F240" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4525,8 +5366,11 @@
       <c r="E241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F241" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4542,8 +5386,11 @@
       <c r="E242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F242" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4559,8 +5406,11 @@
       <c r="E243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F243" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4576,8 +5426,11 @@
       <c r="E244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F244" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4593,8 +5446,11 @@
       <c r="E245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F245" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4610,8 +5466,11 @@
       <c r="E246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F246" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4627,8 +5486,11 @@
       <c r="E247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F247" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4644,8 +5506,11 @@
       <c r="E248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F248" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4661,8 +5526,11 @@
       <c r="E249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F249" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4678,8 +5546,11 @@
       <c r="E250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F250" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4695,8 +5566,11 @@
       <c r="E251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F251" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4712,8 +5586,11 @@
       <c r="E252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F252" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4729,8 +5606,11 @@
       <c r="E253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F253" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4746,8 +5626,11 @@
       <c r="E254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F254" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4763,8 +5646,11 @@
       <c r="E255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4780,8 +5666,11 @@
       <c r="E256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F256" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -4797,8 +5686,11 @@
       <c r="E257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -4814,8 +5706,11 @@
       <c r="E258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -4831,8 +5726,11 @@
       <c r="E259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F259" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -4848,8 +5746,11 @@
       <c r="E260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -4865,8 +5766,11 @@
       <c r="E261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -4882,8 +5786,11 @@
       <c r="E262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -4899,8 +5806,11 @@
       <c r="E263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F263" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -4916,8 +5826,11 @@
       <c r="E264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F264" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -4933,8 +5846,11 @@
       <c r="E265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F265" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -4950,8 +5866,11 @@
       <c r="E266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F266" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -4967,8 +5886,11 @@
       <c r="E267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F267" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -4984,8 +5906,11 @@
       <c r="E268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F268" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5001,8 +5926,11 @@
       <c r="E269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F269" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -5018,8 +5946,11 @@
       <c r="E270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F270" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5035,8 +5966,11 @@
       <c r="E271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F271" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5052,8 +5986,11 @@
       <c r="E272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F272" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5069,8 +6006,11 @@
       <c r="E273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F273" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -5086,8 +6026,11 @@
       <c r="E274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F274" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5103,8 +6046,11 @@
       <c r="E275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F275" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5120,8 +6066,11 @@
       <c r="E276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F276" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -5137,8 +6086,11 @@
       <c r="E277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F277" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -5154,8 +6106,11 @@
       <c r="E278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F278" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -5171,8 +6126,11 @@
       <c r="E279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F279" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -5188,8 +6146,11 @@
       <c r="E280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F280" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -5205,8 +6166,11 @@
       <c r="E281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F281" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -5222,8 +6186,11 @@
       <c r="E282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F282" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -5239,8 +6206,11 @@
       <c r="E283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F283" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -5256,8 +6226,11 @@
       <c r="E284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F284" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -5273,8 +6246,11 @@
       <c r="E285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F285" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -5290,8 +6266,11 @@
       <c r="E286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F286" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -5307,8 +6286,11 @@
       <c r="E287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F287" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -5324,8 +6306,11 @@
       <c r="E288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F288" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -5341,8 +6326,11 @@
       <c r="E289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F289" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -5358,8 +6346,11 @@
       <c r="E290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F290" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -5375,8 +6366,11 @@
       <c r="E291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -5392,8 +6386,11 @@
       <c r="E292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F292" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -5409,8 +6406,11 @@
       <c r="E293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -5426,8 +6426,11 @@
       <c r="E294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -5443,8 +6446,11 @@
       <c r="E295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F295" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -5460,8 +6466,11 @@
       <c r="E296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F296" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -5477,8 +6486,11 @@
       <c r="E297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F297" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -5494,8 +6506,11 @@
       <c r="E298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F298" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -5511,8 +6526,11 @@
       <c r="E299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -5528,8 +6546,11 @@
       <c r="E300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F300" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -5545,8 +6566,11 @@
       <c r="E301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F301" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -5562,8 +6586,11 @@
       <c r="E302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F302" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -5579,8 +6606,11 @@
       <c r="E303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F303" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -5596,8 +6626,11 @@
       <c r="E304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F304" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -5613,8 +6646,11 @@
       <c r="E305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F305" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -5630,8 +6666,11 @@
       <c r="E306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F306" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -5647,8 +6686,11 @@
       <c r="E307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F307" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -5664,8 +6706,11 @@
       <c r="E308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F308" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -5681,8 +6726,11 @@
       <c r="E309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F309" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -5698,8 +6746,11 @@
       <c r="E310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F310" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -5715,8 +6766,11 @@
       <c r="E311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F311" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -5732,8 +6786,11 @@
       <c r="E312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F312" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -5749,8 +6806,11 @@
       <c r="E313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F313" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -5766,8 +6826,11 @@
       <c r="E314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F314" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -5783,8 +6846,11 @@
       <c r="E315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F315" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -5800,8 +6866,11 @@
       <c r="E316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F316" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -5817,8 +6886,11 @@
       <c r="E317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F317" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -5834,8 +6906,11 @@
       <c r="E318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F318" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -5851,8 +6926,11 @@
       <c r="E319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F319" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -5868,8 +6946,11 @@
       <c r="E320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F320" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -5885,8 +6966,11 @@
       <c r="E321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F321" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -5902,8 +6986,11 @@
       <c r="E322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F322" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -5919,8 +7006,11 @@
       <c r="E323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F323" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -5936,8 +7026,11 @@
       <c r="E324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F324" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -5953,8 +7046,11 @@
       <c r="E325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F325" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -5970,8 +7066,11 @@
       <c r="E326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F326" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -5987,8 +7086,11 @@
       <c r="E327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F327" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -6004,8 +7106,11 @@
       <c r="E328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F328" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -6021,8 +7126,11 @@
       <c r="E329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F329" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -6038,8 +7146,11 @@
       <c r="E330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F330" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -6055,8 +7166,11 @@
       <c r="E331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F331" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -6072,8 +7186,11 @@
       <c r="E332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F332" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -6089,8 +7206,11 @@
       <c r="E333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F333" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -6106,8 +7226,11 @@
       <c r="E334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F334" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -6123,8 +7246,11 @@
       <c r="E335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F335" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -6140,8 +7266,11 @@
       <c r="E336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F336" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -6157,8 +7286,11 @@
       <c r="E337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F337" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -6174,8 +7306,11 @@
       <c r="E338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F338" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -6191,8 +7326,11 @@
       <c r="E339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F339" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -6208,8 +7346,11 @@
       <c r="E340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F340" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -6225,8 +7366,12 @@
       <c r="E341">
         <v>1</v>
       </c>
+      <c r="F341" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>